--- a/excel-automation/excel-files/jobs.xlsx
+++ b/excel-automation/excel-files/jobs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\diohe\Documents\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\diohe\Documents\External-Courses\DevOps\Devops-Projects\automation-practice\excel-automation\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E284B212-62C7-4F7B-9417-D8E70B2908AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC3C8A9-D137-4AD5-9F4E-6B296DAE647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{23A005BE-D5D5-4E5C-A579-B052764C2D9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{23A005BE-D5D5-4E5C-A579-B052764C2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Jobs</t>
   </si>
@@ -55,22 +55,13 @@
     <t>Age of Learning</t>
   </si>
   <si>
-    <t>WarnerMedia</t>
-  </si>
-  <si>
     <t>https://ratracerebellion.com/video-game-testers-worldwide/</t>
   </si>
   <si>
     <t>Booked Smart</t>
   </si>
   <si>
-    <t>techforgood</t>
-  </si>
-  <si>
-    <t>remote jobs sources</t>
-  </si>
-  <si>
-    <t>IdealConcepts</t>
+    <t>remote</t>
   </si>
 </sst>
 </file>
@@ -438,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5FC7F5-4B4E-4C56-AC70-A059D80F705C}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,25 +447,12 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -523,7 +501,7 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/excel-automation/excel-files/jobs.xlsx
+++ b/excel-automation/excel-files/jobs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\diohe\Documents\External-Courses\DevOps\Devops-Projects\automation-practice\excel-automation\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC3C8A9-D137-4AD5-9F4E-6B296DAE647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C278E6-5D5E-4A54-B146-5BBFC3677461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{23A005BE-D5D5-4E5C-A579-B052764C2D9E}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Jobs</t>
-  </si>
-  <si>
     <t>jobs to avoid</t>
   </si>
   <si>
@@ -55,20 +52,23 @@
     <t>Age of Learning</t>
   </si>
   <si>
-    <t>https://ratracerebellion.com/video-game-testers-worldwide/</t>
-  </si>
-  <si>
     <t>Booked Smart</t>
   </si>
   <si>
-    <t>remote</t>
+    <t>jobs</t>
+  </si>
+  <si>
+    <t>onsite / remote</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,12 +83,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,9 +105,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -429,30 +422,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5FC7F5-4B4E-4C56-AC70-A059D80F705C}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -475,33 +464,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
